--- a/JSUB999999_jga_metadata.xlsx
+++ b/JSUB999999_jga_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A7706-16BA-40BA-A37E-B1AB56A1FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F9226-009D-4041-BAEE-62D19F0953B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="885">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3435,18 +3435,6 @@
   </si>
   <si>
     <t>Analyze</t>
-  </si>
-  <si>
-    <t>Illumina MiniSeq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
@@ -3673,14 +3661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Illumina NovaSeq 6000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illumina iSeq 100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
     <rPh sb="21" eb="23">
       <t>トウロク</t>
@@ -4427,6 +4407,86 @@
   <si>
     <t>exome2.fastq</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/xx/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA xsd 1.3.0 に対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illumina iSeq 100</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina MiniSeq</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 XL</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -4668,9 +4728,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4708,9 +4768,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4743,26 +4803,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4795,26 +4838,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4988,99 +5014,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="14" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5088,32 +5114,32 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" s="7">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>586</v>
       </c>
@@ -5121,7 +5147,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>591</v>
       </c>
@@ -5129,7 +5155,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>594</v>
       </c>
@@ -5137,7 +5163,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>645</v>
       </c>
@@ -5145,7 +5171,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>650</v>
       </c>
@@ -5153,7 +5179,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>687</v>
       </c>
@@ -5161,44 +5187,52 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B34" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B35" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B36" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B37" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B38" s="7">
         <v>44678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -5218,32 +5252,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
@@ -5287,18 +5321,18 @@
         <v>634</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>654</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5319,7 +5353,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5337,18 +5371,18 @@
         <v>608</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>272</v>
@@ -5375,7 +5409,7 @@
         <v>700</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>576</v>
@@ -5387,15 +5421,15 @@
         <v>609</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>273</v>
@@ -5416,7 +5450,7 @@
         <v>701</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>577</v>
@@ -5425,12 +5459,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>274</v>
@@ -5460,12 +5494,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>275</v>
@@ -5492,12 +5526,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>276</v>
@@ -5524,12 +5558,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>277</v>
@@ -5556,12 +5590,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>651</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>285</v>
@@ -5570,7 +5604,7 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>705</v>
@@ -5585,12 +5619,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>286</v>
@@ -5599,7 +5633,7 @@
         <v>674</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>706</v>
@@ -5614,12 +5648,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>287</v>
@@ -5628,7 +5662,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5643,21 +5677,21 @@
         <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>707</v>
@@ -5672,21 +5706,21 @@
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>653</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>708</v>
@@ -5701,12 +5735,12 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>862</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>680</v>
@@ -5715,7 +5749,7 @@
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5730,12 +5764,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>652</v>
+        <v>863</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>681</v>
@@ -5744,10 +5778,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>564</v>
@@ -5756,12 +5790,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>653</v>
+        <v>864</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>682</v>
@@ -5779,12 +5813,12 @@
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>865</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5793,15 +5827,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>718</v>
+        <v>866</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5810,15 +5844,15 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>683</v>
@@ -5827,15 +5861,15 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>740</v>
+        <v>656</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5844,15 +5878,15 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>741</v>
+        <v>657</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5861,15 +5895,15 @@
         <v>675</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>684</v>
@@ -5884,9 +5918,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>655</v>
+        <v>761</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5901,9 +5935,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5918,9 +5952,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5935,9 +5969,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>765</v>
+        <v>867</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5946,15 +5980,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5963,15 +5997,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>759</v>
+        <v>868</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5980,12 +6014,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5997,9 +6031,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6011,9 +6045,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>762</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6025,20 +6059,20 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>764</v>
+        <v>664</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>665</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6047,9 +6081,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>758</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6058,9 +6092,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>869</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>679</v>
@@ -6069,9 +6103,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>870</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>677</v>
@@ -6080,9 +6114,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>871</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>678</v>
@@ -6091,9 +6125,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>661</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6102,181 +6136,276 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>662</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>663</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>658</v>
+        <v>268</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>659</v>
+        <v>269</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>660</v>
+        <v>872</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>873</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>874</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>664</v>
+        <v>244</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>665</v>
+        <v>245</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>763</v>
+        <v>246</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B60" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B61" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B62" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B63" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B64" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B65" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B60" s="1" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B66" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B61" s="1" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B67" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B62" s="1" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B68" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B63" s="1" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B69" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B64" s="1" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B70" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B65" s="1" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B71" s="1" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B72" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B74" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B75" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B76" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B77" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B78" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B79" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B80" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B84" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6299,51 +6428,51 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6328125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -6363,94 +6492,94 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>44909</v>
       </c>
@@ -6480,37 +6609,37 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" style="1"/>
-    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6328125" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -6521,40 +6650,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>603</v>
       </c>
@@ -6568,7 +6697,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>598</v>
       </c>
@@ -6585,128 +6714,128 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="87.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.5" x14ac:dyDescent="0.6">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="22">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
@@ -6717,7 +6846,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="22">
         <v>1</v>
       </c>
@@ -6725,22 +6854,22 @@
         <v>25477381</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
@@ -6757,39 +6886,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="22">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
@@ -6797,30 +6926,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="22">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
         <v>584</v>
       </c>
@@ -6831,17 +6960,17 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="22">
         <v>3</v>
       </c>
@@ -6884,17 +7013,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="9"/>
-    <col min="2" max="2" width="24.90625" style="1"/>
-    <col min="3" max="4" width="24.90625" style="8"/>
-    <col min="5" max="6" width="24.90625" style="1"/>
-    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.90625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="9"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="4" width="24.88671875" style="8"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
@@ -6929,10 +7058,10 @@
         <v>641</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -6970,678 +7099,678 @@
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="J3" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
@@ -7662,39 +7791,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>440</v>
       </c>
@@ -7737,7 +7864,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -7790,21 +7917,21 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -7819,10 +7946,10 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
@@ -7834,27 +7961,27 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -7869,10 +7996,10 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
@@ -7884,13 +8011,13 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
@@ -7901,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
@@ -7912,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
@@ -7923,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
@@ -7934,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
@@ -7945,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
@@ -7956,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
@@ -7967,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
@@ -7978,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
@@ -7989,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
@@ -8000,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
@@ -8011,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
@@ -8022,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
@@ -8033,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
@@ -8044,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -8055,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
@@ -8066,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
@@ -8077,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
@@ -8088,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
@@ -8099,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
@@ -8110,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -8121,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
@@ -8132,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
@@ -8143,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
@@ -8154,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
@@ -8165,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
@@ -8176,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
@@ -8187,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
@@ -8198,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
@@ -8209,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
@@ -8220,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
@@ -8231,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
@@ -8242,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
@@ -8253,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
@@ -8264,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
@@ -8275,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
@@ -8286,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
@@ -8297,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
@@ -8308,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
@@ -8319,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
@@ -8330,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
@@ -8341,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
@@ -8352,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
@@ -8363,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
@@ -8374,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
@@ -8385,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
@@ -8396,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
@@ -8407,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
@@ -8418,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
@@ -8429,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
@@ -8440,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
@@ -8451,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
@@ -8462,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
@@ -8473,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
@@ -8484,7 +8611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
@@ -8495,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
@@ -8506,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
@@ -8517,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
@@ -8528,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
@@ -8539,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
@@ -8550,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
@@ -8561,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
@@ -8572,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
@@ -8583,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
@@ -8594,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
@@ -8605,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
@@ -8616,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
@@ -8627,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
@@ -8638,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
@@ -8649,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
@@ -8660,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
@@ -8671,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
@@ -8682,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
@@ -8693,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
@@ -8704,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
@@ -8715,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
@@ -8726,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
@@ -8737,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
@@ -8748,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
@@ -8759,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
@@ -8770,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
@@ -8781,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
@@ -8792,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
@@ -8803,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
@@ -8814,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
@@ -8825,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
@@ -8836,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
@@ -8847,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
@@ -8858,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
@@ -8869,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
@@ -8880,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
@@ -8891,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
@@ -8902,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
@@ -8913,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
@@ -8924,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
@@ -8935,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
@@ -8946,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
@@ -8957,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
@@ -9016,7 +9143,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$65</xm:f>
+            <xm:f>Admin!$B$2:$B$84</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
@@ -9043,18 +9170,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>444</v>
       </c>
@@ -9062,7 +9189,7 @@
         <v>545</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>417</v>
@@ -9074,7 +9201,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9094,24 +9221,24 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>446</v>
       </c>
@@ -9119,501 +9246,501 @@
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>544</v>
       </c>
@@ -9648,12 +9775,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="16.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.90625" style="1"/>
+    <col min="1" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>548</v>
       </c>
@@ -9676,7 +9803,7 @@
         <v>417</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>648</v>
@@ -9700,22 +9827,22 @@
         <v>696</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9765,104 +9892,104 @@
         <v>692</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>379</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
@@ -9939,12 +10066,12 @@
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.08984375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>562</v>
       </c>
@@ -9967,7 +10094,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9990,18 +10117,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>365</v>
       </c>
@@ -10036,51 +10163,51 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.36328125" style="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/JSUB999999_jga_metadata.xlsx
+++ b/JSUB999999_jga_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F9226-009D-4041-BAEE-62D19F0953B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE1441A-808A-4C65-8527-1E0023E8AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="883">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4463,12 +4463,6 @@
   </si>
   <si>
     <t>UG 100</t>
-  </si>
-  <si>
-    <t>GENIUS</t>
-  </si>
-  <si>
-    <t>Genapsys Sequencer</t>
   </si>
   <si>
     <t>GS111</t>
@@ -5252,11 +5246,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5740,7 +5732,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>680</v>
@@ -5769,7 +5761,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>863</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>681</v>
@@ -5795,7 +5787,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>682</v>
@@ -5818,7 +5810,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5835,7 +5827,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5852,7 +5844,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>656</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>683</v>
@@ -5869,7 +5861,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5886,7 +5878,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>657</v>
+        <v>760</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5903,7 +5895,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>684</v>
@@ -5920,7 +5912,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5937,7 +5929,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5954,7 +5946,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>755</v>
+        <v>867</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5971,7 +5963,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5988,7 +5980,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6005,7 +5997,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>868</v>
+        <v>754</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6019,7 +6011,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -6033,7 +6025,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>759</v>
+        <v>868</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6154,7 +6146,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>762</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>397</v>
@@ -6162,7 +6154,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>269</v>
+        <v>763</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>712</v>
@@ -6170,7 +6162,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>872</v>
+        <v>764</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>398</v>
@@ -6178,7 +6170,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>873</v>
+        <v>268</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>713</v>
@@ -6186,7 +6178,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>762</v>
+        <v>269</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>777</v>
@@ -6194,7 +6186,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>763</v>
+        <v>872</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>778</v>
@@ -6202,7 +6194,7 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>764</v>
+        <v>873</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>779</v>
@@ -6260,151 +6252,141 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>875</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>876</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>877</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>878</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>879</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>880</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>881</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>666</v>
+        <v>877</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>667</v>
+        <v>875</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>668</v>
+        <v>876</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>669</v>
+        <v>881</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>670</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>671</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" s="1" t="s">
-        <v>672</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>265</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>659</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
-        <v>660</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B82" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B83" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B84" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7791,7 +7773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9143,7 +9127,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$84</xm:f>
+            <xm:f>Admin!$B$2:$B$82</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
